--- a/biology/Médecine/Muscle_mylo-hyoïdien/Muscle_mylo-hyoïdien.xlsx
+++ b/biology/Médecine/Muscle_mylo-hyoïdien/Muscle_mylo-hyoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_mylo-hyo%C3%AFdien</t>
+          <t>Muscle_mylo-hyoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle mylo-hyoïdien (Musculus mylohyoideus en latin) est un muscle pair de la partie supérieure du cou qui forme avec son vis-à-vis un plancher de la cavité buccale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_mylo-hyo%C3%AFdien</t>
+          <t>Muscle_mylo-hyoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Insertions proximales : il s'insère sur un raphé tendu de la symphyse mentonnière en avant jusqu'à l'os hyoïde débordant sur son bord inférieur en arrière. Le raphé médian peut être absent et les deux muscles être en continuité
 Trajet : il suit un trajet oblique vers le haut et l'extérieur
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_mylo-hyo%C3%AFdien</t>
+          <t>Muscle_mylo-hyoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est sous le contrôle du nerf mylo-hyoïdien venant du nerf alvéolaire inférieur branche collatérale du nerf mandibulaire V3.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_mylo-hyo%C3%AFdien</t>
+          <t>Muscle_mylo-hyoïdien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il provoque:
 l'ascension de l'os hyoïde lorsque la mandibule est fixe
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_mylo-hyo%C3%AFdien</t>
+          <t>Muscle_mylo-hyoïdien</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle est en rapport avec le muscle homonyme controlatéral par un raphé qui les unis. Le bord postérieur du muscle est en relation avec la glande sub-mandibulaire.
 </t>
